--- a/Assets/MiniTemplate/Datas/__tables__.xlsx
+++ b/Assets/MiniTemplate/Datas/__tables__.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -167,6 +167,44 @@
   </si>
   <si>
     <t>weapon.TbWeapon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>haracter</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>haracter.xlsx</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">character.TbCharacter </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -522,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -679,6 +717,20 @@
         <v>37</v>
       </c>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/MiniTemplate/Datas/__tables__.xlsx
+++ b/Assets/MiniTemplate/Datas/__tables__.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -205,6 +205,31 @@
   </si>
   <si>
     <t xml:space="preserve">character.TbCharacter </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.TbRespawnPonts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>espawn</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>testStageRespawn.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -560,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -731,6 +756,20 @@
         <v>40</v>
       </c>
     </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/MiniTemplate/Datas/__tables__.xlsx
+++ b/Assets/MiniTemplate/Datas/__tables__.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -230,6 +230,31 @@
   </si>
   <si>
     <t>testStageRespawn.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage.TbRespawnPoints</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ainStageRespawn.xlsx</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Respawn</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -585,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -770,6 +795,20 @@
         <v>44</v>
       </c>
     </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
